--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1293261.565743904</v>
+        <v>1291009.486032697</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283213</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>332.1690792869423</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826011</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>30.20067097435919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.7793708383993</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>351.8998908890637</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.90969376287366</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>150.2062474346973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.6968828249263</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045342</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176115</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.21841339139942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417083</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>96.04906679049557</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>8.483880264975597e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936184</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>201.749081730972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>112.7304175246786</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161866255</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272926</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.35059460820252</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188567</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>174.9740119554616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365957</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986326</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833345</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.543434242328</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2030.14327430645</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>403.1511359853713</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1393.505862985445</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>1165.516312087427</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.7237329438971</v>
+        <v>403.1511359853713</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>954.6078386576646</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>568.8195860594203</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>561.8740853102169</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>146.8016351552133</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2403.038273524211</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5179,31 +5179,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,52 +5975,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,34 +6224,34 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.093974969474</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876645</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597576</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474219</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474219</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614344</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179042</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3403484614391</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4041655335323</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>664.2875261211965</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3744325388034</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>369.484485040893</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>809.0422355233313</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>640.1060525954244</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9894131830887</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063204</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718109</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2024.390058741049</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.574488637966</v>
+        <v>1735.314832085247</v>
       </c>
       <c r="V37" t="n">
-        <v>1728.890000432079</v>
+        <v>1480.63034387936</v>
       </c>
       <c r="W37" t="n">
-        <v>1439.472830395119</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.483279497101</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.6907003535711</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998238</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7789,13 +7789,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664512</v>
+        <v>65.54986409393062</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393065</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671013225</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345295073</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>84.77391660561901</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>68.29586847696596</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067446</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.45968844823267</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.1735436840663</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823601</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823572</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787408</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787408</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787408</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787408</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.524978741</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.524978741</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.524978741</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.524978741</v>
       </c>
     </row>
     <row r="16">
@@ -26317,22 +26317,22 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140033</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26350,7 +26350,7 @@
         <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26522,46 +26522,46 @@
         <v>-1035627.579323585</v>
       </c>
       <c r="C6" t="n">
-        <v>293117.1664040074</v>
+        <v>293117.1664040071</v>
       </c>
       <c r="D6" t="n">
         <v>293117.1664040074</v>
       </c>
       <c r="E6" t="n">
-        <v>45366.04800092339</v>
+        <v>45331.31007548784</v>
       </c>
       <c r="F6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828425</v>
       </c>
       <c r="G6" t="n">
-        <v>370778.5098082782</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="H6" t="n">
-        <v>370778.5098082785</v>
+        <v>370743.7718828425</v>
       </c>
       <c r="I6" t="n">
-        <v>370778.5098082782</v>
+        <v>370743.7718828424</v>
       </c>
       <c r="J6" t="n">
-        <v>153247.3074110008</v>
+        <v>153212.5694855652</v>
       </c>
       <c r="K6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828427</v>
       </c>
       <c r="L6" t="n">
-        <v>370778.5098082782</v>
+        <v>370743.7718828425</v>
       </c>
       <c r="M6" t="n">
-        <v>285723.4818727668</v>
+        <v>285688.743947331</v>
       </c>
       <c r="N6" t="n">
-        <v>370778.5098082785</v>
+        <v>370743.7718828427</v>
       </c>
       <c r="O6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="P6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828428</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>37.56202139152668</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734525</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>256.3223273622318</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>32.80528251369546</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.83395077441691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>256.6980706244468</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>79.09653893143596</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>101.9313958891307</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.0369588385543</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.0026523482567</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.055771766308074e-11</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371034</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822679</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,13 +32099,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106283</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016576</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>265.5442652399242</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.118870915085</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023937</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183243</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>134.202553156591</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
